--- a/medicine/Pharmacie/Vicente_Cervantes/Vicente_Cervantes.xlsx
+++ b/medicine/Pharmacie/Vicente_Cervantes/Vicente_Cervantes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vicente Cervantes est un botaniste espagnol, né le 17 février 1758 à Zafra (province de Badajoz) et mort le 26 juillet 1829 à Mexico.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il part à Madrid pour y effectuer des études de pharmacie et travaille beaucoup au Jardin botanique royal de Madrid. Il commence à travailler comme pharmacien à l'Hôpital général.
 Le médecin aragonais Martin de Sessé y Lacasta (1751-1808) commence à préparer une expédition en Amérique centrale pour compléter les recherches de Francisco Hernández (1514-1578), médecin et botaniste, auteur des premières observations scientifiques sur ce continent. Cette nouvelle expédition devait également promouvoir l’enseignement des sciences dans cette province ainsi qu'à améliorer les connaissances du personnel des services sanitaires. Sessé dirige cette expédition, nommée Real Expedición Botánica a la Nueva España et recrute Cervantes comme expert en botanique. Les autres participants à cette expédition sont l'anatomiste et chirurgien José Longinos Martínez, les pharmaciens Jaime Sanseve et Juan del Castillo, accompagnés de deux jeunes peintres, Vicente de la Cerda et Atanasio Echevarría, de l'Académie de San Carlos[Laquelle ?]. La durée de l'expédition est fixée à cinq années, de 1787 à 1803 et l'objectif est d'étudier la faune, la flore, les minéraux, la géographie ainsi que les us et coutumes des habitants.
